--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Minutas" sheetId="1" r:id="rId1"/>
+    <sheet name="Fechas estimativas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Fecha</t>
   </si>
@@ -58,12 +59,72 @@
       <t xml:space="preserve"> para el tracking, acuerdo de pasos iniciales, creacion de repositorio. </t>
     </r>
   </si>
+  <si>
+    <t>Espera firmas protocolo</t>
+  </si>
+  <si>
+    <t>No empezamos con la primera etapa ya que estuvimos esperando documentacion.</t>
+  </si>
+  <si>
+    <t>Etapa</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Análisis e Investigación de herramientas y tecnologias a utilizar</t>
+  </si>
+  <si>
+    <t>Relevamiento de requerimientos</t>
+  </si>
+  <si>
+    <t>Diseño de arquitectura</t>
+  </si>
+  <si>
+    <t>Modelo deteccion de entidades: Recopilacion y etiquetado de datos</t>
+  </si>
+  <si>
+    <t>Implementacion de modelo de deteccion de entidades</t>
+  </si>
+  <si>
+    <t>Testeo y Entrenamiento de modelo de entidades</t>
+  </si>
+  <si>
+    <t>Validación del modelo con datos reales</t>
+  </si>
+  <si>
+    <t>Modelo violencia de género: Recopilacion y etiquetado de datos</t>
+  </si>
+  <si>
+    <t>Implementacion de modelo de deteccion de violencia de género</t>
+  </si>
+  <si>
+    <t>Testeo y entrenamiento de modelo de deteccion de violencia de género</t>
+  </si>
+  <si>
+    <t>Implementacion de servidor backend</t>
+  </si>
+  <si>
+    <t>Implementacion de interfaz web: Carga de datos y uso de modelos.</t>
+  </si>
+  <si>
+    <t>Implementacion de interfaz web: Visualizacion de resultados.</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Fecha Fin Etapa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +140,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -96,20 +202,187 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -120,7 +393,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
@@ -128,6 +401,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -414,53 +692,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D27"/>
+  <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="4" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>44858</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>44866</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -479,4 +768,206 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16">
+        <v>44858</v>
+      </c>
+      <c r="E3" s="18">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16">
+        <v>44879</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="16">
+        <v>44900</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16">
+        <v>44914</v>
+      </c>
+      <c r="E6" s="19">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16">
+        <v>44942</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16">
+        <v>44970</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16">
+        <v>44984</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="16">
+        <v>44991</v>
+      </c>
+      <c r="E10" s="20">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="16">
+        <v>45019</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="16">
+        <v>45047</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="16">
+        <v>45061</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="16">
+        <v>45068</v>
+      </c>
+      <c r="E14" s="21">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="16">
+        <v>45089</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="16">
+        <v>45103</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Minutas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Fecha</t>
   </si>
@@ -116,13 +116,19 @@
   <si>
     <t>Fecha Fin Etapa</t>
   </si>
+  <si>
+    <t>Reunion Requerimientos</t>
+  </si>
+  <si>
+    <t>Repasamos el documento de requerimientos y continuamos con su elaboracion. Definimos dudas a resolver con los demandantes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -338,6 +344,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,28 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +745,17 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>44899</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="7" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -774,14 +790,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="57.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -793,21 +809,21 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="12">
         <v>44858</v>
       </c>
       <c r="E3" s="18">
@@ -815,33 +831,33 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>44914</v>
       </c>
       <c r="E6" s="19">
@@ -849,43 +865,43 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="16">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="12">
         <v>44991</v>
       </c>
       <c r="E10" s="20">
@@ -893,43 +909,43 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
+      <c r="B14" s="17">
         <v>4</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12">
         <v>45068</v>
       </c>
       <c r="E14" s="21">
@@ -937,24 +953,24 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Fecha</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Repasamos el documento de requerimientos y continuamos con su elaboracion. Definimos dudas a resolver con los demandantes.</t>
+  </si>
+  <si>
+    <t>Reunion con drectores</t>
+  </si>
+  <si>
+    <t>Tuvimos la primera reunion de todo el equipo del proyecto, hablamos de los requerimientos, y las ideas para el desarrollo.</t>
   </si>
 </sst>
 </file>
@@ -700,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +762,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>44902</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="8" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -790,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Minutas" sheetId="1" r:id="rId1"/>
     <sheet name="Fechas estimativas" sheetId="2" r:id="rId2"/>
+    <sheet name="Fechas con modificaciones" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Fecha</t>
   </si>
@@ -127,6 +128,33 @@
   </si>
   <si>
     <t>Tuvimos la primera reunion de todo el equipo del proyecto, hablamos de los requerimientos, y las ideas para el desarrollo.</t>
+  </si>
+  <si>
+    <t>Demandante InfoLab</t>
+  </si>
+  <si>
+    <t>Debido a problemas para concretar a la fiscalia de necochea como demandantes, se decidio que ese rol lo cumplirá el infolab</t>
+  </si>
+  <si>
+    <t>Presentacion nota demandantes</t>
+  </si>
+  <si>
+    <t>Se presentó la nota que expresa al infolab como institucion demandante ante la catedra</t>
+  </si>
+  <si>
+    <t>Horas estimadas</t>
+  </si>
+  <si>
+    <t>DISEÑO DE INTERFACES</t>
+  </si>
+  <si>
+    <t>Reunion: Casos de uso</t>
+  </si>
+  <si>
+    <t>Definimos y armamos casos de uso del sistema, repasamos modelo de dominio, y resolvimos requerimientos no funcionales.</t>
+  </si>
+  <si>
+    <t>Horas reales</t>
   </si>
 </sst>
 </file>
@@ -174,7 +202,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +233,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -218,21 +252,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -331,11 +350,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,11 +391,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -356,44 +406,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,29 +807,59 @@
     </row>
     <row r="6" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>44899</v>
+        <v>44895</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
+        <v>44899</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>44902</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>44908</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="11" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -804,10 +888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,10 +899,12 @@
     <col min="3" max="3" width="57.42578125" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -831,9 +917,13 @@
       <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="14">
+      <c r="F2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -842,32 +932,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="21">
         <v>44914</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
+      <c r="F3" s="16">
+        <v>160</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -876,42 +974,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="22">
         <v>44991</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
+      <c r="F6" s="16">
+        <v>220</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -920,42 +1028,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="23">
         <v>45068</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
+      <c r="F10" s="16">
+        <v>220</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
+      <c r="E13" s="19"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -964,32 +1082,40 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="24">
         <v>44773</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
+      <c r="F14" s="16">
+        <v>200</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -998,6 +1124,277 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="12">
+        <v>44858</v>
+      </c>
+      <c r="E3" s="21">
+        <v>44914</v>
+      </c>
+      <c r="F3" s="16">
+        <v>160</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12">
+        <v>44879</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12">
+        <v>44900</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
+      <c r="C6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12">
+        <v>44914</v>
+      </c>
+      <c r="E7" s="22">
+        <v>44991</v>
+      </c>
+      <c r="F7" s="16">
+        <v>220</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12">
+        <v>44942</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="12">
+        <v>44970</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12">
+        <v>44984</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12">
+        <v>44991</v>
+      </c>
+      <c r="E11" s="23">
+        <v>45068</v>
+      </c>
+      <c r="F11" s="16">
+        <v>220</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45019</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12">
+        <v>45047</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12">
+        <v>45061</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12">
+        <v>45068</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44773</v>
+      </c>
+      <c r="F15" s="16">
+        <v>200</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12">
+        <v>45089</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12">
+        <v>45103</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Minutas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Fecha</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Horas estimadas</t>
   </si>
   <si>
-    <t>DISEÑO DE INTERFACES</t>
-  </si>
-  <si>
     <t>Reunion: Casos de uso</t>
   </si>
   <si>
@@ -155,6 +152,51 @@
   </si>
   <si>
     <t>Horas reales</t>
+  </si>
+  <si>
+    <t>Fecha fin Real</t>
+  </si>
+  <si>
+    <t>DISEÑO DE INTERFACES (tarea extra)</t>
+  </si>
+  <si>
+    <t>Reunion interfaces</t>
+  </si>
+  <si>
+    <t>Definimos las pantallas a diseñar y presentamos la aplicacion figma.</t>
+  </si>
+  <si>
+    <t>EMPIEZA ETAPA 2? 1.5?</t>
+  </si>
+  <si>
+    <t>Empezamos el diseño de interfaces</t>
+  </si>
+  <si>
+    <t>Reunion Diseño</t>
+  </si>
+  <si>
+    <t>Nos reunimos de forma presencial para continuar el diseño de las interfaces.</t>
+  </si>
+  <si>
+    <t>Investigacion Figma</t>
+  </si>
+  <si>
+    <t>API Twitter</t>
+  </si>
+  <si>
+    <t>La API que utilizamos para la creacion del dataset de entrenamiento  anuncio que dejara de ser gratuita en una semana, por lo que extendimos la extraccion de datos para obtener data aplicable a la cuarta etapa (clasificador de texto) ahora que podemos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion muestra de prototipo </t>
+  </si>
+  <si>
+    <t>Nos reunimos con lucia, bruno y martin para hacer la muestra del prototipo creado y registrar los cambios necesarios.</t>
+  </si>
+  <si>
+    <t>Runion con bruno: determinacion de entidades a etiquetar, pruebas con label studio, charla de creacion de dataset y entrenamientos.</t>
+  </si>
+  <si>
+    <t>Reunion Bruno</t>
   </si>
 </sst>
 </file>
@@ -202,7 +244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,12 +277,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -378,11 +438,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,34 +727,125 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,18 +1252,78 @@
         <v>44909</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="11" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>44912</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>44917</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>44933</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>44959</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>44960</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>44963</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -923,7 +1381,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="17">
+      <c r="B3" s="37">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -932,40 +1390,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="41">
         <v>44914</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="45">
         <v>160</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="B6" s="38">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -974,52 +1432,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="42">
         <v>44991</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="45">
         <v>220</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+      <c r="B10" s="39">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1028,52 +1486,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="43">
         <v>45068</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="45">
         <v>220</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
+      <c r="B14" s="40">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1082,40 +1540,48 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="44">
         <v>44773</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="45">
         <v>200</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -1124,14 +1590,6 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1140,23 +1598,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="57.42578125" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="5" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1169,15 +1627,18 @@
       <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="17">
+      <c r="H2" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="49">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1186,215 +1647,252 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="54">
         <v>44914</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="19"/>
+      <c r="G3" s="45">
         <v>160</v>
       </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
+      <c r="H3" s="45">
+        <f>40+34</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="50"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="8" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="24">
         <v>44900</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+      <c r="E5" s="55"/>
+      <c r="F5" s="27">
+        <v>44912</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="52">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="53"/>
+      <c r="C7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36">
+        <v>44942</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="38">
+        <v>3</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="26">
         <v>44914</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E8" s="47">
+        <v>44990</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="45">
+        <v>220</v>
+      </c>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12">
+        <v>44942</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="48"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12">
+        <v>44970</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="38"/>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12">
+        <v>44984</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="39">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12">
         <v>44991</v>
       </c>
-      <c r="F7" s="16">
+      <c r="E12" s="43">
+        <v>45068</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="45">
         <v>220</v>
       </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12">
-        <v>44942</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="12">
-        <v>44970</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="9" t="s">
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="12">
+        <v>45019</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="39"/>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12">
+        <v>45047</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="39"/>
+      <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12">
-        <v>44984</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="12">
-        <v>44991</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D15" s="12">
+        <v>45061</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="40">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12">
         <v>45068</v>
       </c>
-      <c r="F11" s="16">
-        <v>220</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="12">
-        <v>45019</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="12">
-        <v>45047</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="12">
-        <v>45061</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="20">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="12">
-        <v>45068</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="E16" s="44">
         <v>44773</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="21"/>
+      <c r="G16" s="45">
         <v>200</v>
       </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="7" t="s">
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="40"/>
+      <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <v>45089</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="8" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40"/>
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <v>45103</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
+  <mergeCells count="17">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Minutas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Fecha</t>
   </si>
@@ -197,6 +197,21 @@
   </si>
   <si>
     <t>Reunion Bruno</t>
+  </si>
+  <si>
+    <t>Reunion NER</t>
+  </si>
+  <si>
+    <t>Definimos criterios para el etiquetado y organizamos logistica.</t>
+  </si>
+  <si>
+    <t>nota enero</t>
+  </si>
+  <si>
+    <t>Retrasos</t>
+  </si>
+  <si>
+    <t>Vacaciones en infolab. Ausencias de los integrantes por vacaciones. Preparacion de examenes finales.</t>
   </si>
 </sst>
 </file>
@@ -791,6 +806,9 @@
     <xf numFmtId="16" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,9 +831,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1158,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,17 +1339,37 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>44973</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1348,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1416,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="37">
+      <c r="B3" s="38">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1390,40 +1425,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="42">
         <v>44914</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="37">
         <v>160</v>
       </c>
-      <c r="G3" s="45"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="38">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1432,52 +1467,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="43">
         <v>44991</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="37">
         <v>220</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="39">
+      <c r="B10" s="40">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1486,52 +1521,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="44">
         <v>45068</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="37">
         <v>220</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="40">
+      <c r="B14" s="41">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1540,40 +1575,48 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="45">
         <v>44773</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="37">
         <v>200</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="F6:F9"/>
@@ -1582,14 +1625,6 @@
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1600,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,10 +1686,10 @@
         <v>44914</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="45">
+      <c r="G3" s="37">
         <v>160</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="37">
         <f>40+34</f>
         <v>74</v>
       </c>
@@ -1669,8 +1704,8 @@
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="51"/>
@@ -1684,8 +1719,8 @@
       <c r="F5" s="27">
         <v>44912</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="52">
@@ -1698,7 +1733,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
       <c r="G6" s="46"/>
-      <c r="H6" s="45"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53"/>
@@ -1711,10 +1746,10 @@
         <v>44942</v>
       </c>
       <c r="G7" s="46"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="38">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1724,55 +1759,55 @@
         <v>44914</v>
       </c>
       <c r="E8" s="47">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="45">
+      <c r="G8" s="37">
         <v>220</v>
       </c>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
         <v>44942</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>44970</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="12">
         <v>44984</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="39">
+      <c r="B12" s="40">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1781,56 +1816,56 @@
       <c r="D12" s="12">
         <v>44991</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="44">
         <v>45068</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="45">
+      <c r="G12" s="37">
         <v>220</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>45019</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="12">
         <v>45047</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12">
         <v>45061</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="40">
+      <c r="B16" s="41">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1839,51 +1874,43 @@
       <c r="D16" s="12">
         <v>45068</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="45">
         <v>44773</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="45">
+      <c r="G16" s="37">
         <v>200</v>
       </c>
-      <c r="H16" s="45"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>45089</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="12">
         <v>45103</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="B8:B11"/>
@@ -1893,6 +1920,14 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Minutas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Fecha</t>
   </si>
@@ -212,6 +212,21 @@
   </si>
   <si>
     <t>Vacaciones en infolab. Ausencias de los integrantes por vacaciones. Preparacion de examenes finales.</t>
+  </si>
+  <si>
+    <t>marzo</t>
+  </si>
+  <si>
+    <t>Etiquetado</t>
+  </si>
+  <si>
+    <t>primera ronda de etiqquetado para la creacion de modelo detector de entidades. Incapie en la consistencia en los criterios de etiquetado, sobretodo entre distintos datasets y entre ppablo y yo</t>
+  </si>
+  <si>
+    <t>valentina</t>
+  </si>
+  <si>
+    <t>Termine el primer etiquetado de frases comunes. Muchas frases son muy parecidas entre si, por lo que me preocupa que haya overfitting al entrenar. Tambien pueden existir diferencias en criterios al etiquetar entre nosotros. Voy a hacer una primera prueba de entrenamiento con estos datos y despues vere que se debe modificar. (sugerencia:hacer una seleccion de las frases y unirlas al dataser de tweets)</t>
   </si>
 </sst>
 </file>
@@ -806,31 +821,31 @@
     <xf numFmtId="16" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1173,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,8 +1376,28 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="21" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1451,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1425,40 +1460,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>44914</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="45">
         <v>160</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
+      <c r="B6" s="38">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1467,52 +1502,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="42">
         <v>44991</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="45">
         <v>220</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1521,52 +1556,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>45068</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="45">
         <v>220</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="41">
+      <c r="B14" s="40">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1575,40 +1610,48 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>44773</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="45">
         <v>200</v>
       </c>
-      <c r="G14" s="37"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -1617,14 +1660,6 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1635,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H12" sqref="H12:H15"/>
     </sheetView>
   </sheetViews>
@@ -1686,10 +1721,10 @@
         <v>44914</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="37">
+      <c r="G3" s="45">
         <v>160</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="45">
         <f>40+34</f>
         <v>74</v>
       </c>
@@ -1704,8 +1739,8 @@
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="51"/>
@@ -1719,8 +1754,8 @@
       <c r="F5" s="27">
         <v>44912</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="52">
@@ -1733,7 +1768,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
       <c r="G6" s="46"/>
-      <c r="H6" s="37"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53"/>
@@ -1746,10 +1781,10 @@
         <v>44942</v>
       </c>
       <c r="G7" s="46"/>
-      <c r="H7" s="37"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="39">
+      <c r="B8" s="38">
         <v>3</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1762,52 +1797,52 @@
         <v>44991</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="37">
+      <c r="G8" s="45">
         <v>220</v>
       </c>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
         <v>44942</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>44970</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="12">
         <v>44984</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1816,56 +1851,56 @@
       <c r="D12" s="12">
         <v>44991</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <v>45068</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="37">
+      <c r="G12" s="45">
         <v>220</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>45019</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="12">
         <v>45047</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12">
         <v>45061</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="41">
+      <c r="B16" s="40">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1874,43 +1909,51 @@
       <c r="D16" s="12">
         <v>45068</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="44">
         <v>44773</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="37">
+      <c r="G16" s="45">
         <v>200</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>45089</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="12">
         <v>45103</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="B8:B11"/>
@@ -1920,14 +1963,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Fecha</t>
   </si>
@@ -226,7 +226,13 @@
     <t>valentina</t>
   </si>
   <si>
-    <t>Termine el primer etiquetado de frases comunes. Muchas frases son muy parecidas entre si, por lo que me preocupa que haya overfitting al entrenar. Tambien pueden existir diferencias en criterios al etiquetar entre nosotros. Voy a hacer una primera prueba de entrenamiento con estos datos y despues vere que se debe modificar. (sugerencia:hacer una seleccion de las frases y unirlas al dataser de tweets)</t>
+    <t>Termine el primer etiquetado de frases comunes.</t>
+  </si>
+  <si>
+    <t>Reunion con bruno y reunion entre integrantes</t>
+  </si>
+  <si>
+    <t>Discutimos los resultados del primer etiquetado y entrenamiento por separado, y definimos los cambios para el segundo entrenamiento.</t>
   </si>
 </sst>
 </file>
@@ -821,6 +827,9 @@
     <xf numFmtId="16" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,9 +852,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1188,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>44973</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44998</v>
       </c>
@@ -1398,13 +1404,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>44999</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1451,7 +1469,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="37">
+      <c r="B3" s="38">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1460,40 +1478,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="42">
         <v>44914</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="37">
         <v>160</v>
       </c>
-      <c r="G3" s="45"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="38">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1502,52 +1520,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="43">
         <v>44991</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="37">
         <v>220</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="39">
+      <c r="B10" s="40">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1556,52 +1574,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="44">
         <v>45068</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="37">
         <v>220</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="40">
+      <c r="B14" s="41">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1610,40 +1628,48 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="45">
         <v>44773</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="37">
         <v>200</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="F6:F9"/>
@@ -1652,14 +1678,6 @@
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1671,7 +1689,7 @@
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,10 +1739,10 @@
         <v>44914</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="45">
+      <c r="G3" s="37">
         <v>160</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="37">
         <f>40+34</f>
         <v>74</v>
       </c>
@@ -1739,8 +1757,8 @@
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="51"/>
@@ -1754,8 +1772,8 @@
       <c r="F5" s="27">
         <v>44912</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="52">
@@ -1768,7 +1786,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
       <c r="G6" s="46"/>
-      <c r="H6" s="45"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53"/>
@@ -1781,10 +1799,10 @@
         <v>44942</v>
       </c>
       <c r="G7" s="46"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="38">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1797,52 +1815,52 @@
         <v>44991</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="45">
+      <c r="G8" s="37">
         <v>220</v>
       </c>
       <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
         <v>44942</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>44970</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="12">
         <v>44984</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="39">
+      <c r="B12" s="40">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1851,56 +1869,56 @@
       <c r="D12" s="12">
         <v>44991</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="44">
         <v>45068</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="45">
+      <c r="G12" s="37">
         <v>220</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>45019</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="12">
         <v>45047</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12">
         <v>45061</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="40">
+      <c r="B16" s="41">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1909,51 +1927,43 @@
       <c r="D16" s="12">
         <v>45068</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="45">
         <v>44773</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="45">
+      <c r="G16" s="37">
         <v>200</v>
       </c>
-      <c r="H16" s="45"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>45089</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="12">
         <v>45103</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="B8:B11"/>
@@ -1963,6 +1973,14 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>Fecha</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>Discutimos los resultados del primer etiquetado y entrenamiento por separado, y definimos los cambios para el segundo entrenamiento.</t>
+  </si>
+  <si>
+    <t>Reunion testing de modelos</t>
+  </si>
+  <si>
+    <t>Decidimos sobre la forma para testear los mejores modelos detectores de entidades.</t>
+  </si>
+  <si>
+    <t>Comienzo de etapa 4</t>
   </si>
 </sst>
 </file>
@@ -725,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,6 +836,9 @@
     <xf numFmtId="16" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,9 +872,6 @@
     <xf numFmtId="16" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,6 +891,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1207,7 @@
   <dimension ref="B3:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,8 +1427,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="23" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>45034</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1497,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="38">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1478,40 +1506,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="43">
         <v>44914</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="38">
         <v>160</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
+      <c r="B6" s="40">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1520,52 +1548,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="44">
         <v>44991</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="38">
         <v>220</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="40">
+      <c r="B10" s="41">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1574,52 +1602,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="45">
         <v>45068</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="38">
         <v>220</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="41">
+      <c r="B14" s="42">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1628,37 +1656,37 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="46">
         <v>44773</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="38">
         <v>200</v>
       </c>
-      <c r="G14" s="37"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1688,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,10 +1767,10 @@
         <v>44914</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="37">
+      <c r="G3" s="38">
         <v>160</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="38">
         <f>40+34</f>
         <v>74</v>
       </c>
@@ -1757,8 +1785,8 @@
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="51"/>
@@ -1772,8 +1800,8 @@
       <c r="F5" s="27">
         <v>44912</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="52">
@@ -1785,8 +1813,8 @@
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53"/>
@@ -1798,11 +1826,11 @@
       <c r="F7" s="36">
         <v>44942</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="39">
+      <c r="B8" s="40">
         <v>3</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1811,56 +1839,60 @@
       <c r="D8" s="26">
         <v>44914</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="48">
         <v>44991</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="37">
+      <c r="G8" s="38">
         <v>220</v>
       </c>
-      <c r="H8" s="48"/>
+      <c r="H8" s="56">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
         <v>44942</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="48"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="56"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>44970</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="48"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="12">
         <v>44984</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="48"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="37">
+        <v>45032</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40">
+      <c r="B12" s="41">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1869,56 +1901,56 @@
       <c r="D12" s="12">
         <v>44991</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="45">
         <v>45068</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="37">
+      <c r="G12" s="38">
         <v>220</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>45019</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="12">
         <v>45047</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12">
         <v>45061</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="41">
+      <c r="B16" s="42">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1927,40 +1959,40 @@
       <c r="D16" s="12">
         <v>45068</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="46">
         <v>44773</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="37">
+      <c r="G16" s="38">
         <v>200</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>45089</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="12">
         <v>45103</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Minutas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>Fecha</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Comienzo de etapa 4</t>
+  </si>
+  <si>
+    <t>*nota: una razon por la que se tardó menos de lo estimado es que bruno tenia bastante conocimiento previo que nos pudo transmitir de como configurar y entrenar el sistema.</t>
   </si>
 </sst>
 </file>
@@ -839,39 +842,42 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,9 +897,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -1497,7 +1500,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="39">
+      <c r="B3" s="38">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1506,40 +1509,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>44914</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="46">
         <v>160</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1548,52 +1551,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>44991</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="46">
         <v>220</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1602,52 +1605,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>45068</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="46">
         <v>220</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1656,40 +1659,48 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>44773</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="46">
         <v>200</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -1698,14 +1709,6 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1714,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,8 +1732,8 @@
     <col min="8" max="8" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1753,8 +1756,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="49">
+    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="50">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1763,48 +1766,48 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="55">
         <v>44914</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="38">
+      <c r="G3" s="46">
         <v>160</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="46">
         <f>40+34</f>
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="50"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="51"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="52"/>
       <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="24">
         <v>44900</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="27">
         <v>44912</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="52">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="53">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
@@ -1814,10 +1817,10 @@
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="53"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="54"/>
       <c r="C7" s="33" t="s">
         <v>37</v>
       </c>
@@ -1827,10 +1830,10 @@
         <v>44942</v>
       </c>
       <c r="G7" s="47"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="40">
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1843,56 +1846,60 @@
         <v>44991</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="38">
+      <c r="G8" s="46">
         <v>220</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="49">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="39"/>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
         <v>44942</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="56"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="49"/>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>44970</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="56"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="39"/>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="12">
         <v>44984</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="37">
         <v>45032</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="56"/>
-    </row>
-    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41">
+      <c r="G11" s="46"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="40">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1901,56 +1908,56 @@
       <c r="D12" s="12">
         <v>44991</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>45068</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="38">
+      <c r="G12" s="46">
         <v>220</v>
       </c>
-      <c r="H12" s="38"/>
-    </row>
-    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>45019</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="12">
         <v>45047</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="40"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12">
         <v>45061</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="42">
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="41">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1959,43 +1966,51 @@
       <c r="D16" s="12">
         <v>45068</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>44773</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="38">
+      <c r="G16" s="46">
         <v>200</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>45089</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="12">
         <v>45103</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="B8:B11"/>
@@ -2005,14 +2020,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Minutas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>Fecha</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>*nota: una razon por la que se tardó menos de lo estimado es que bruno tenia bastante conocimiento previo que nos pudo transmitir de como configurar y entrenar el sistema.</t>
+  </si>
+  <si>
+    <t>Reunion formato de datos para el entrenamiento</t>
+  </si>
+  <si>
+    <t>Creamos las funciones para pasar del formato de label studio a el .spacy que se requiere para entrenar el TextCategorizer (binario)</t>
   </si>
 </sst>
 </file>
@@ -842,6 +848,9 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,9 +873,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1209,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1456,17 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>45043</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="25" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1516,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="38">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1509,40 +1525,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="43">
         <v>44914</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="38">
         <v>160</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
+      <c r="B6" s="40">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1551,52 +1567,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="44">
         <v>44991</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="38">
         <v>220</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="40">
+      <c r="B10" s="41">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1605,52 +1621,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="45">
         <v>45068</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="38">
         <v>220</v>
       </c>
-      <c r="G10" s="46"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="41">
+      <c r="B14" s="42">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1659,40 +1675,48 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="46">
         <v>44773</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="38">
         <v>200</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="F6:F9"/>
@@ -1701,14 +1725,6 @@
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1719,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,10 +1786,10 @@
         <v>44914</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="46">
+      <c r="G3" s="38">
         <v>160</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="38">
         <f>40+34</f>
         <v>74</v>
       </c>
@@ -1788,8 +1804,8 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52"/>
@@ -1803,8 +1819,8 @@
       <c r="F5" s="27">
         <v>44912</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="53">
@@ -1817,7 +1833,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="46"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="54"/>
@@ -1830,10 +1846,10 @@
         <v>44942</v>
       </c>
       <c r="G7" s="47"/>
-      <c r="H7" s="46"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="39">
+      <c r="B8" s="40">
         <v>3</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1846,7 +1862,7 @@
         <v>44991</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="46">
+      <c r="G8" s="38">
         <v>220</v>
       </c>
       <c r="H8" s="49">
@@ -1855,51 +1871,51 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
         <v>44942</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="49"/>
       <c r="I9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>44970</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="49"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="12">
         <v>44984</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="37">
         <v>45032</v>
       </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="49"/>
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40">
+      <c r="B12" s="41">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1908,56 +1924,56 @@
       <c r="D12" s="12">
         <v>44991</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="45">
         <v>45068</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="46">
+      <c r="G12" s="38">
         <v>220</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>45019</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="12">
         <v>45047</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12">
         <v>45061</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="41">
+      <c r="B16" s="42">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1966,51 +1982,43 @@
       <c r="D16" s="12">
         <v>45068</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="46">
         <v>44773</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="46">
+      <c r="G16" s="38">
         <v>200</v>
       </c>
-      <c r="H16" s="46"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>45089</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="12">
         <v>45103</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="B8:B11"/>
@@ -2020,6 +2028,14 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Fecha</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>Creamos las funciones para pasar del formato de label studio a el .spacy que se requiere para entrenar el TextCategorizer (binario)</t>
+  </si>
+  <si>
+    <t>Consultas a Bruno</t>
+  </si>
+  <si>
+    <t>Consultmos a nuestro director sobre algunos aspectos tecnicos del entrenamiento del modelo multicategoria.</t>
+  </si>
+  <si>
+    <t>Reunion modelo multicategoria</t>
+  </si>
+  <si>
+    <t>Planeamos los siguientes pasos para completar la creacion del modelo multicategoria y su posterior testeo,</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1228,7 @@
   <dimension ref="B3:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,8 +1479,28 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>45022</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>45085</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="27" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1483,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Fecha</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>Planeamos los siguientes pasos para completar la creacion del modelo multicategoria y su posterior testeo,</t>
+  </si>
+  <si>
+    <t>Etiquetado multicategoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El primer dataset etiquetado tiene muchas falencias, no es muy bueno para la creacion del modelo que buscamos lograr, asique se decidio crear un nuevo dataset. </t>
   </si>
 </sst>
 </file>
@@ -860,31 +866,31 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -951,8 +957,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:D27" totalsRowShown="0">
-  <autoFilter ref="B3:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:D43" totalsRowShown="0">
+  <autoFilter ref="B3:D43"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Fecha" dataDxfId="2"/>
     <tableColumn id="2" name="Evento" dataDxfId="1"/>
@@ -1228,7 +1234,7 @@
   <dimension ref="B3:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1507,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>45105</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1548,7 +1564,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="39">
+      <c r="B3" s="38">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1557,40 +1573,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>44914</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="46">
         <v>160</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1599,52 +1615,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>44991</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="46">
         <v>220</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1653,52 +1669,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>45068</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="46">
         <v>220</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1707,40 +1723,48 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>44773</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="46">
         <v>200</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -1749,14 +1773,6 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1818,10 +1834,10 @@
         <v>44914</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="38">
+      <c r="G3" s="46">
         <v>160</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="46">
         <f>40+34</f>
         <v>74</v>
       </c>
@@ -1836,8 +1852,8 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52"/>
@@ -1851,8 +1867,8 @@
       <c r="F5" s="27">
         <v>44912</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="53">
@@ -1865,7 +1881,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="38"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="54"/>
@@ -1878,10 +1894,10 @@
         <v>44942</v>
       </c>
       <c r="G7" s="47"/>
-      <c r="H7" s="38"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1894,7 +1910,7 @@
         <v>44991</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="38">
+      <c r="G8" s="46">
         <v>220</v>
       </c>
       <c r="H8" s="49">
@@ -1903,51 +1919,51 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
         <v>44942</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="49"/>
       <c r="I9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>44970</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="49"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="12">
         <v>44984</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="37">
         <v>45032</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="49"/>
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41">
+      <c r="B12" s="40">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1956,56 +1972,56 @@
       <c r="D12" s="12">
         <v>44991</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>45068</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="38">
+      <c r="G12" s="46">
         <v>220</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>45019</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="12">
         <v>45047</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12">
         <v>45061</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="42">
+      <c r="B16" s="41">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2014,43 +2030,51 @@
       <c r="D16" s="12">
         <v>45068</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>44773</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="38">
+      <c r="G16" s="46">
         <v>200</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>45089</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="12">
         <v>45103</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="B8:B11"/>
@@ -2060,14 +2084,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>Fecha</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t xml:space="preserve">El primer dataset etiquetado tiene muchas falencias, no es muy bueno para la creacion del modelo que buscamos lograr, asique se decidio crear un nuevo dataset. </t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Nos reunimos con bruno.</t>
   </si>
 </sst>
 </file>
@@ -866,6 +872,9 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,9 +897,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1231,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H27"/>
+  <dimension ref="B3:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,6 +1522,26 @@
       </c>
       <c r="D27" s="2" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>45145</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>45205</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1590,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="38">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1573,40 +1599,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="43">
         <v>44914</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="38">
         <v>160</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
+      <c r="B6" s="40">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1615,52 +1641,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="44">
         <v>44991</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="38">
         <v>220</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="40">
+      <c r="B10" s="41">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1669,52 +1695,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="45">
         <v>45068</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="38">
         <v>220</v>
       </c>
-      <c r="G10" s="46"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="41">
+      <c r="B14" s="42">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1723,40 +1749,48 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="46">
         <v>44773</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="38">
         <v>200</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="F6:F9"/>
@@ -1765,14 +1799,6 @@
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1834,10 +1860,10 @@
         <v>44914</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="46">
+      <c r="G3" s="38">
         <v>160</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="38">
         <f>40+34</f>
         <v>74</v>
       </c>
@@ -1852,8 +1878,8 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52"/>
@@ -1867,8 +1893,8 @@
       <c r="F5" s="27">
         <v>44912</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="53">
@@ -1881,7 +1907,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="46"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="54"/>
@@ -1894,10 +1920,10 @@
         <v>44942</v>
       </c>
       <c r="G7" s="47"/>
-      <c r="H7" s="46"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="39">
+      <c r="B8" s="40">
         <v>3</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1910,7 +1936,7 @@
         <v>44991</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="46">
+      <c r="G8" s="38">
         <v>220</v>
       </c>
       <c r="H8" s="49">
@@ -1919,51 +1945,51 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
         <v>44942</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="49"/>
       <c r="I9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>44970</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="49"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="12">
         <v>44984</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="37">
         <v>45032</v>
       </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="49"/>
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40">
+      <c r="B12" s="41">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1972,56 +1998,56 @@
       <c r="D12" s="12">
         <v>44991</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="45">
         <v>45068</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="46">
+      <c r="G12" s="38">
         <v>220</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>45019</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="12">
         <v>45047</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12">
         <v>45061</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="41">
+      <c r="B16" s="42">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2030,51 +2056,43 @@
       <c r="D16" s="12">
         <v>45068</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="46">
         <v>44773</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="46">
+      <c r="G16" s="38">
         <v>200</v>
       </c>
-      <c r="H16" s="46"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>45089</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="12">
         <v>45103</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="B8:B11"/>
@@ -2084,6 +2102,14 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Minutas.xlsx
+++ b/Minutas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>Fecha</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>Nos reunimos con bruno.</t>
+  </si>
+  <si>
+    <t>Estas no me acuerdo del dia a mediados de noviembre</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos reunimos con bruno, lucia , martin y santiago trigo para hablar de la interfaz, presentacion de la informacion y ultimos cambios </t>
   </si>
 </sst>
 </file>
@@ -872,31 +884,31 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -963,12 +975,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:D43" totalsRowShown="0">
-  <autoFilter ref="B3:D43"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:E43" totalsRowShown="0">
+  <autoFilter ref="B3:E43"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Fecha" dataDxfId="2"/>
     <tableColumn id="2" name="Evento" dataDxfId="1"/>
     <tableColumn id="3" name="Descripcion" dataDxfId="0"/>
+    <tableColumn id="4" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1237,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H29"/>
+  <dimension ref="B3:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G36" sqref="G34:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,6 +1273,9 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -1542,6 +1558,45 @@
       </c>
       <c r="C29" s="2" t="s">
         <v>75</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>45231</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>45231</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>45261</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1645,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="39">
+      <c r="B3" s="38">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1599,40 +1654,40 @@
       <c r="D3" s="12">
         <v>44858</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>44914</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="46">
         <v>160</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>44879</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>44900</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1641,52 +1696,52 @@
       <c r="D6" s="12">
         <v>44914</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>44991</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="46">
         <v>220</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>44942</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="12">
         <v>44970</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="12">
         <v>44984</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1695,52 +1750,52 @@
       <c r="D10" s="12">
         <v>44991</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>45068</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="46">
         <v>220</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12">
         <v>45019</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>45047</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="12">
         <v>45061</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1749,40 +1804,48 @@
       <c r="D14" s="12">
         <v>45068</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>44773</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="46">
         <v>200</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>45089</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>45103</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -1791,14 +1854,6 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1860,10 +1915,10 @@
         <v>44914</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="38">
+      <c r="G3" s="46">
         <v>160</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="46">
         <f>40+34</f>
         <v>74</v>
       </c>
@@ -1878,8 +1933,8 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52"/>
@@ -1893,8 +1948,8 @@
       <c r="F5" s="27">
         <v>44912</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="53">
@@ -1907,7 +1962,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="38"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="54"/>
@@ -1920,10 +1975,10 @@
         <v>44942</v>
       </c>
       <c r="G7" s="47"/>
-      <c r="H7" s="38"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1936,7 +1991,7 @@
         <v>44991</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="38">
+      <c r="G8" s="46">
         <v>220</v>
       </c>
       <c r="H8" s="49">
@@ -1945,51 +2000,51 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
         <v>44942</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="49"/>
       <c r="I9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>44970</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="49"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="12">
         <v>44984</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="37">
         <v>45032</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="49"/>
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41">
+      <c r="B12" s="40">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1998,56 +2053,56 @@
       <c r="D12" s="12">
         <v>44991</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>45068</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="38">
+      <c r="G12" s="46">
         <v>220</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12">
         <v>45019</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="12">
         <v>45047</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12">
         <v>45061</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="42">
+      <c r="B16" s="41">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2056,43 +2111,51 @@
       <c r="D16" s="12">
         <v>45068</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>44773</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="38">
+      <c r="G16" s="46">
         <v>200</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>45089</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="12">
         <v>45103</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="B8:B11"/>
@@ -2102,14 +2165,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
